--- a/업무연락방_작업일정_20201030_희권.xlsx
+++ b/업무연락방_작업일정_20201030_희권.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heekweonkang/projects/git_project/PUB_figma/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D2E516-6D65-2346-9998-3BD9BA5495E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18075" yWindow="975" windowWidth="19200" windowHeight="22020"/>
+    <workbookView xWindow="18080" yWindow="460" windowWidth="19200" windowHeight="21980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="17">
   <si>
     <t>반응형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,12 +90,16 @@
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,7 +265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,6 +318,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,22 +607,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="5" width="10.125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="10.1640625" style="2" customWidth="1"/>
     <col min="6" max="8" width="14.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="33.75" customHeight="1">
       <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
@@ -625,7 +633,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16.5" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -634,7 +642,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="18" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -645,8 +653,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:8" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="6" spans="2:10" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -669,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="16.5" customHeight="1">
       <c r="B7" s="5">
         <v>1</v>
       </c>
@@ -681,10 +689,10 @@
       <c r="F7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -696,10 +704,10 @@
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="16.5" customHeight="1">
       <c r="B9" s="5">
         <v>3</v>
       </c>
@@ -711,10 +719,10 @@
       <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="16.5" customHeight="1">
       <c r="B10" s="6">
         <v>4</v>
       </c>
@@ -726,10 +734,10 @@
       <c r="F10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="16.5" customHeight="1">
       <c r="B11" s="6">
         <v>5</v>
       </c>
@@ -745,8 +753,11 @@
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" customHeight="1">
       <c r="B12" s="6">
         <v>6</v>
       </c>
@@ -765,7 +776,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="16.5" customHeight="1">
       <c r="B13" s="6">
         <v>7</v>
       </c>
@@ -784,7 +795,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="16.5" customHeight="1">
       <c r="B14" s="6">
         <v>8</v>
       </c>
@@ -801,7 +812,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="16.5" customHeight="1">
       <c r="B15" s="6">
         <v>9</v>
       </c>
@@ -817,8 +828,11 @@
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="16.5" customHeight="1">
       <c r="B16" s="5">
         <v>10</v>
       </c>
@@ -839,7 +853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="16.5" customHeight="1">
       <c r="B17" s="5">
         <v>11</v>
       </c>
@@ -860,7 +874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="16.5" customHeight="1">
       <c r="B18" s="5">
         <v>12</v>
       </c>
@@ -879,8 +893,11 @@
       <c r="I18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="16.5" customHeight="1">
       <c r="B19" s="5">
         <v>13</v>
       </c>
@@ -899,8 +916,11 @@
       <c r="I19" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="16.5" customHeight="1">
       <c r="B20" s="6">
         <v>14</v>
       </c>
@@ -917,7 +937,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="16.5" customHeight="1">
       <c r="B21" s="6">
         <v>15</v>
       </c>
@@ -934,7 +954,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="16.5" customHeight="1">
       <c r="B22" s="5">
         <v>16</v>
       </c>
@@ -954,7 +974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="16.5" customHeight="1">
       <c r="B23" s="5">
         <v>17</v>
       </c>
@@ -974,7 +994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="16.5" customHeight="1">
       <c r="B24" s="5">
         <v>18</v>
       </c>
@@ -996,7 +1016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="16.5" customHeight="1">
       <c r="B25" s="5">
         <v>19</v>
       </c>
@@ -1018,7 +1038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="16.5" customHeight="1">
       <c r="B26" s="5">
         <v>20</v>
       </c>
@@ -1030,10 +1050,10 @@
       <c r="F26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="12"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="16.5" customHeight="1">
       <c r="B27" s="5">
         <v>21</v>
       </c>
@@ -1056,7 +1076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="16.5" customHeight="1">
       <c r="B28" s="5">
         <v>22</v>
       </c>
@@ -1079,7 +1099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="16.5" customHeight="1">
       <c r="B29" s="5">
         <v>23</v>
       </c>
@@ -1102,7 +1122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="16.5" customHeight="1">
       <c r="B30" s="5">
         <v>24</v>
       </c>
@@ -1121,7 +1141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="16.5" customHeight="1">
       <c r="B31" s="5">
         <v>25</v>
       </c>
@@ -1140,7 +1160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="16.5" customHeight="1">
       <c r="B32" s="5">
         <v>26</v>
       </c>
@@ -1161,7 +1181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="16.5" customHeight="1">
       <c r="B33" s="5">
         <v>27</v>
       </c>
@@ -1180,7 +1200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="16.5" customHeight="1">
       <c r="B34" s="5">
         <v>28</v>
       </c>
@@ -1192,10 +1212,10 @@
       <c r="F34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="12"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" ht="16.5" customHeight="1">
       <c r="B35" s="5">
         <v>29</v>
       </c>
@@ -1214,7 +1234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" ht="16.5" customHeight="1">
       <c r="B36" s="5">
         <v>30</v>
       </c>
@@ -1233,8 +1253,11 @@
       <c r="I36" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="16.5" customHeight="1">
       <c r="B37" s="5">
         <v>31</v>
       </c>
@@ -1251,7 +1274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" ht="16.5" customHeight="1">
       <c r="B38" s="5">
         <v>32</v>
       </c>
@@ -1268,7 +1291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" ht="16.5" customHeight="1">
       <c r="B39" s="5">
         <v>33</v>
       </c>
@@ -1285,7 +1308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="16.5" customHeight="1">
       <c r="B40" s="5">
         <v>34</v>
       </c>
@@ -1302,7 +1325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="16.5" customHeight="1">
       <c r="B41" s="5">
         <v>35</v>
       </c>
@@ -1315,9 +1338,11 @@
         <v>44140</v>
       </c>
       <c r="G41" s="12"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="16.5" customHeight="1">
       <c r="B42" s="5">
         <v>36</v>
       </c>
@@ -1332,7 +1357,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="16.5" customHeight="1">
       <c r="B43" s="5">
         <v>37</v>
       </c>
@@ -1347,7 +1372,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" ht="16.5" customHeight="1">
       <c r="B44" s="5">
         <v>38</v>
       </c>
@@ -1364,8 +1389,11 @@
       <c r="I44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="16.5" customHeight="1">
       <c r="B45" s="5">
         <v>39</v>
       </c>
@@ -1382,8 +1410,11 @@
       <c r="I45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="16.5" customHeight="1">
       <c r="B46" s="5">
         <v>40</v>
       </c>
@@ -1398,7 +1429,7 @@
       <c r="G46" s="12"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" ht="16.5" customHeight="1">
       <c r="B47" s="5">
         <v>41</v>
       </c>
@@ -1419,7 +1450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="16.5" customHeight="1">
       <c r="B48" s="5">
         <v>42</v>
       </c>
@@ -1440,7 +1471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="16.5" customHeight="1">
       <c r="B49" s="5">
         <v>43</v>
       </c>
@@ -1455,7 +1486,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" ht="16.5" customHeight="1">
       <c r="B50" s="6">
         <v>44</v>
       </c>
@@ -1470,7 +1501,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" ht="16.5" customHeight="1">
       <c r="B51" s="5">
         <v>45</v>
       </c>
@@ -1485,7 +1516,7 @@
       <c r="G51" s="12"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" ht="16.5" customHeight="1">
       <c r="B52" s="5">
         <v>46</v>
       </c>
@@ -1500,7 +1531,7 @@
       <c r="G52" s="12"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" ht="16.5" customHeight="1">
       <c r="B53" s="5">
         <v>47</v>
       </c>
@@ -1517,8 +1548,11 @@
       <c r="I53" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="16.5" customHeight="1">
       <c r="B54" s="5">
         <v>48</v>
       </c>
@@ -1539,7 +1573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" ht="16.5" customHeight="1">
       <c r="B55" s="5">
         <v>49</v>
       </c>
@@ -1554,7 +1588,7 @@
       <c r="G55" s="12"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" ht="16.5" customHeight="1">
       <c r="B56" s="5">
         <v>50</v>
       </c>
@@ -1569,7 +1603,7 @@
       <c r="G56" s="12"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" ht="16.5" customHeight="1">
       <c r="B57" s="5">
         <v>51</v>
       </c>
@@ -1586,7 +1620,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" ht="16.5" customHeight="1">
       <c r="B58" s="5">
         <v>52</v>
       </c>
@@ -1601,7 +1635,7 @@
       <c r="G58" s="12"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" ht="16.5" customHeight="1">
       <c r="B59" s="5">
         <v>53</v>
       </c>
@@ -1616,7 +1650,7 @@
       <c r="G59" s="12"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" ht="16.5" customHeight="1">
       <c r="B60" s="5">
         <v>54</v>
       </c>
@@ -1637,7 +1671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" ht="16.5" customHeight="1">
       <c r="B61" s="5">
         <v>55</v>
       </c>
@@ -1651,14 +1685,12 @@
       <c r="F61" s="8">
         <v>44139</v>
       </c>
-      <c r="G61" s="12">
-        <v>44138</v>
-      </c>
+      <c r="G61" s="12"/>
       <c r="H61" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" ht="16.5" customHeight="1">
       <c r="B62" s="5">
         <v>56</v>
       </c>
@@ -1672,14 +1704,12 @@
       <c r="F62" s="8">
         <v>44139</v>
       </c>
-      <c r="G62" s="12">
-        <v>44138</v>
-      </c>
+      <c r="G62" s="12"/>
       <c r="H62" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" ht="16.5" customHeight="1">
       <c r="B63" s="6">
         <v>57</v>
       </c>
@@ -1694,7 +1724,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" ht="16.5" customHeight="1">
       <c r="B64" s="6">
         <v>58</v>
       </c>
@@ -1709,7 +1739,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="16.5" customHeight="1">
       <c r="B65" s="6">
         <v>59</v>
       </c>
@@ -1724,7 +1754,7 @@
       <c r="G65" s="13"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" ht="16.5" customHeight="1">
       <c r="B66" s="6">
         <v>60</v>
       </c>
@@ -1739,7 +1769,7 @@
       <c r="G66" s="13"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" ht="16.5" customHeight="1">
       <c r="B67" s="6">
         <v>61</v>
       </c>
@@ -1754,7 +1784,7 @@
       <c r="G67" s="13"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" ht="16.5" customHeight="1">
       <c r="B68" s="6">
         <v>62</v>
       </c>
@@ -1769,7 +1799,7 @@
       <c r="G68" s="13"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" ht="16.5" customHeight="1">
       <c r="B69" s="6">
         <v>63</v>
       </c>
@@ -1784,7 +1814,7 @@
       <c r="G69" s="13"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" ht="16.5" customHeight="1">
       <c r="B70" s="6">
         <v>64</v>
       </c>
@@ -1799,7 +1829,7 @@
       <c r="G70" s="13"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" ht="16.5" customHeight="1">
       <c r="B71" s="6">
         <v>65</v>
       </c>
@@ -1814,7 +1844,7 @@
       <c r="G71" s="13"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" ht="16.5" customHeight="1">
       <c r="B72" s="6">
         <v>66</v>
       </c>
@@ -1829,7 +1859,7 @@
       <c r="G72" s="13"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" ht="16.5" customHeight="1">
       <c r="B73" s="6">
         <v>67</v>
       </c>
@@ -1844,7 +1874,7 @@
       <c r="G73" s="13"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" ht="16.5" customHeight="1">
       <c r="B74" s="6">
         <v>68</v>
       </c>
@@ -1859,7 +1889,7 @@
       <c r="G74" s="13"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" ht="16.5" customHeight="1">
       <c r="B75" s="6">
         <v>69</v>
       </c>
@@ -1874,7 +1904,7 @@
       <c r="G75" s="13"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" ht="16.5" customHeight="1">
       <c r="B76" s="6">
         <v>70</v>
       </c>
@@ -1889,7 +1919,7 @@
       <c r="G76" s="13"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" ht="16.5" customHeight="1">
       <c r="B77" s="6">
         <v>71</v>
       </c>
@@ -1904,7 +1934,7 @@
       <c r="G77" s="13"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" ht="16.5" customHeight="1">
       <c r="B78" s="6">
         <v>72</v>
       </c>
@@ -1919,7 +1949,7 @@
       <c r="G78" s="13"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" ht="16.5" customHeight="1">
       <c r="B79" s="6">
         <v>73</v>
       </c>
@@ -1934,7 +1964,7 @@
       <c r="G79" s="13"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" ht="16.5" customHeight="1">
       <c r="B80" s="6">
         <v>74</v>
       </c>
@@ -1951,7 +1981,7 @@
       <c r="G80" s="13"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" ht="16.5" customHeight="1">
       <c r="B81" s="6">
         <v>75</v>
       </c>
@@ -1966,7 +1996,7 @@
       <c r="G81" s="13"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" ht="16.5" customHeight="1">
       <c r="B82" s="6">
         <v>76</v>
       </c>
@@ -1983,7 +2013,7 @@
       <c r="G82" s="13"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" ht="16.5" customHeight="1">
       <c r="B83" s="6">
         <v>77</v>
       </c>
@@ -2000,7 +2030,7 @@
       <c r="G83" s="13"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" ht="16.5" customHeight="1">
       <c r="B84" s="6">
         <v>78</v>
       </c>
@@ -2015,7 +2045,7 @@
       <c r="G84" s="13"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" ht="16.5" customHeight="1">
       <c r="B85" s="6">
         <v>79</v>
       </c>
@@ -2032,7 +2062,7 @@
       <c r="G85" s="13"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="B86" s="6">
         <v>80</v>
       </c>
